--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192722</v>
+        <v>507846.9793192721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>87.20907807295006</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,58 +1379,58 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.06887257838802</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,28 +1649,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>135.4132168533396</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,64 +2090,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>42.22730542821517</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,67 +2315,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>42.22730542821517</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2485,64 +2485,64 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,58 +2567,58 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>52.42556848774752</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>131.3980055647953</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,37 +2731,37 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>42.60052133045985</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,61 +3041,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3208,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.1689537721621</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>91.10663889794492</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,70 +3740,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>21.43544681702803</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>185.6886020115828</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4349,19 +4349,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
@@ -4410,13 +4410,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G5" t="n">
         <v>487.4018176583718</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>756.2968567456824</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
         <v>668.2068788942177</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4689,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4741,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4896,37 +4896,37 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.7040404982626</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="10">
@@ -4981,7 +4981,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5069,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5127,43 +5127,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>869.0380923001433</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>869.0380923001433</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="13">
@@ -5215,19 +5215,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>366.1018663125844</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W14" t="n">
-        <v>366.1018663125844</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X14" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>156.0621702347982</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5394,13 +5394,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5692,16 +5692,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>646.8164376473068</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>646.8164376473068</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>411.6643294155641</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
         <v>829.5248650203655</v>
@@ -5944,16 +5944,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>210.869396638348</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D24" t="n">
-        <v>61.93498697709674</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>210.869396638348</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>831.3318973643784</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>603.1082791007675</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>603.1082791007675</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>603.1082791007675</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6409,25 +6409,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>63.06610538972556</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6549,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
         <v>829.5248650203655</v>
@@ -6664,7 +6664,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
         <v>829.5248650203655</v>
@@ -6874,34 +6874,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7023,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7263,7 +7263,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="40">
@@ -7357,22 +7357,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7409,7 +7409,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7448,13 +7448,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7494,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
@@ -7676,22 +7676,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>417.2522547781879</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C45" t="n">
-        <v>417.2522547781879</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D45" t="n">
-        <v>417.2522547781879</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,16 +7734,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>417.2522547781879</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>417.2522547781879</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>417.2522547781879</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10911,10 +10911,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>60.23598749168869</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23103,16 +23103,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23221,10 +23221,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>6.088961574255109</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23513,10 +23513,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,28 +23537,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>22.23186360206134</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,19 +23978,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,19 +24096,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>157.9374232666064</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,10 +24260,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,25 +24285,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>115.4177750271858</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,10 +24342,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>198.920084420089</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>68.76672313002635</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.3884445891958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>46.79611152095523</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872721</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25096,10 +25096,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,10 +25114,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25233,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>1.900258621221752</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,13 +25330,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,13 +25406,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,7 +25476,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>66.53844155745603</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,13 +25628,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25710,7 +25710,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.3082731757331</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>136.2096336383729</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>19.99409376572157</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408645</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="D2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="F2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879931</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879943</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26522,46 +26522,46 @@
         <v>-29533.82927421399</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733376</v>
+        <v>51235.60225733374</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733372</v>
+        <v>51235.60225733374</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="G6" t="n">
         <v>84863.20225733375</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822749</v>
+        <v>21803.25965822746</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="L6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733367</v>
       </c>
       <c r="N6" t="n">
+        <v>84863.2022573337</v>
+      </c>
+      <c r="O6" t="n">
+        <v>84863.2022573337</v>
+      </c>
+      <c r="P6" t="n">
         <v>84863.20225733373</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84863.20225733373</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84863.20225733379</v>
       </c>
     </row>
   </sheetData>
@@ -34708,10 +34708,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,10 +37391,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37631,10 +37631,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>99.8112771299739</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,13 +38023,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38102,19 +38102,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192721</v>
+        <v>509551.7353335389</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10634673358876</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.85442600983729</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>183.8842973311964</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,13 +1451,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.06887257838802</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>124.9488863009592</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.4132168533396</v>
+        <v>68.67434453202564</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1938,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,61 +2092,61 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>60.32085216144026</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,70 +2241,70 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>116.325098768111</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>62.88143347497287</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>42.60052133045985</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>190.5178817243302</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>121.0964745243357</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,13 +3350,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.1689537721621</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>24.83923539838699</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>47.09925417175987</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,11 +3991,11 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>185.6886020115828</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4135,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4352,25 +4354,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G5" t="n">
         <v>487.4018176583718</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D6" t="n">
         <v>668.2068788942177</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4689,7 +4691,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4743,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>735.8335372470253</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>735.8335372470253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,16 +4889,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>735.8335372470253</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X9" t="n">
-        <v>735.8335372470253</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>735.8335372470253</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>869.0380923001433</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>869.0380923001433</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>666.8514976589092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>666.8514976589092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>431.6993894271665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>188.2506127830665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>188.2506127830665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.2506127830665</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5215,19 +5217,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
         <v>19.28114311021272</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4769954460863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0282188019862</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C15" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D15" t="n">
-        <v>156.0621702347982</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
         <v>231.8830517671884</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5630,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="G21" t="n">
         <v>223.7040404982626</v>
@@ -5841,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6041262295092</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D24" t="n">
-        <v>640.669716568258</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E24" t="n">
-        <v>481.4322615628025</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F24" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6105,13 +6107,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6409,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>176.4352409821462</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>63.06610538972556</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>176.4352409821462</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.4352409821462</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>22.57944215788615</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57944215788615</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>486.9119902784999</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>312.4589609973729</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>163.5245513361216</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>841.7374842739334</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>639.5508896326994</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>639.5508896326994</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>639.5508896326994</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.1273272985679</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6898,10 +6900,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>312.8306575918298</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7122,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.3080510879349</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="C39" t="n">
-        <v>111.3080510879349</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="D39" t="n">
-        <v>111.3080510879349</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7287,16 +7289,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.5233881080029</v>
+        <v>44.37127987626019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7639,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,22 +7669,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>333.7844730889342</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W44" t="n">
         <v>262.7299197543128</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7783,10 +7785,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3441281936695</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22796,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>393.4483115052977</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22832,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22863,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.49467379535915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>67.81068582972321</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,22 +23305,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>26.92171639560435</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.088961574255109</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23470,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>290.3538512141759</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>22.23186360206134</v>
+        <v>88.9707359233753</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23826,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.051527993195</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>77.02266500177038</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>28.74411362527286</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>26.5151993764422</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,13 +24502,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24774,10 +24776,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>46.79611152095523</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>15.25510347914729</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>37.69799725872721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24862,7 +24864,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>50.58669657950207</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>1.900258621221752</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>164.936795482178</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>66.53844155745603</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.5042817648236</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>119.4339294781075</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>257.4082506688596</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.99409376572157</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26023,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="F2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879933</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879931</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26522,46 +26524,46 @@
         <v>-29533.82927421399</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733374</v>
+        <v>51235.60225733373</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733374</v>
+        <v>51235.60225733378</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="G6" t="n">
         <v>84863.20225733375</v>
       </c>
       <c r="H6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21803.25965822752</v>
+      </c>
+      <c r="K6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="N6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="O6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="J6" t="n">
-        <v>21803.25965822746</v>
-      </c>
-      <c r="K6" t="n">
-        <v>84863.20225733377</v>
-      </c>
-      <c r="L6" t="n">
-        <v>84863.20225733372</v>
-      </c>
-      <c r="M6" t="n">
-        <v>84863.20225733367</v>
-      </c>
-      <c r="N6" t="n">
-        <v>84863.2022573337</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84863.2022573337</v>
-      </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733376</v>
       </c>
     </row>
   </sheetData>
@@ -34708,10 +34710,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335389</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>67.59919672667945</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>18.9042331488103</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.09824479845398</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>183.8842973311964</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,64 +1372,64 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>51.72215467797748</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>85.31372784089211</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>124.9488863009592</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.9551940726745</v>
       </c>
       <c r="E15" t="n">
-        <v>68.67434453202564</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2137,7 +2137,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>60.32085216144026</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>98.92381696846063</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>190.5178817243302</v>
+        <v>69.99226724763528</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,58 +3043,58 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>121.0964745243357</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>61.77856551940151</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,67 +3265,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>110.1497834296626</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>100.8824071085284</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>66.27621346797223</v>
       </c>
       <c r="G39" t="n">
-        <v>24.83923539838699</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>47.09925417175987</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>94.06887257838802</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,61 +3906,61 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>98.92381696846063</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4143,61 +4143,61 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>794.6056091678861</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>794.6056091678861</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>794.6056091678861</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>794.6056091678861</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>551.1568325237861</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>551.1568325237861</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2968567456824</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C6" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="7">
@@ -4746,13 +4746,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4831,22 +4831,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
         <v>506.1786963984129</v>
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>183.363730950278</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>183.363730950278</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>183.363730950278</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>183.363730950278</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>183.363730950278</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.63290553289352</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.63290553289352</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>778.3154410346802</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>183.363730950278</v>
       </c>
     </row>
     <row r="10">
@@ -4986,10 +4986,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C11" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>911.8125548258105</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>700.6811714053606</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V11" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.0815197256143</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C12" t="n">
-        <v>413.6284904444873</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>264.694080783236</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>105.4566257777805</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4566257777805</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>105.4566257777805</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5126,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="13">
@@ -5217,31 +5217,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C14" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D14" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E14" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F14" t="n">
-        <v>601.5428246748836</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y14" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D15" t="n">
-        <v>487.2836868729568</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5366,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5457,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>911.8125548258105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>700.6811714053606</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>284.6341941966871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>284.6341941966871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>284.6341941966871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>284.6341941966871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>284.6341941966871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>452.8495312167552</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>452.8495312167552</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>517.4848137278872</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0360370837871</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y23" t="n">
-        <v>517.4848137278872</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.7812428759814</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C24" t="n">
-        <v>136.7812428759814</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D24" t="n">
-        <v>136.7812428759814</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E24" t="n">
-        <v>136.7812428759814</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.9965798960495</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V26" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W26" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>926.4957180431458</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>718.6442178376129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.57944215788615</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200711</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>396.0109115480204</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6645,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>841.7374842739334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>639.5508896326994</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>639.5508896326994</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>639.5508896326994</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W33" t="n">
-        <v>396.1021129885993</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X33" t="n">
-        <v>188.2506127830665</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>852.7947480059265</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>852.7947480059265</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>609.3459713618265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>401.4944711562937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>44.37127987626019</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="C39" t="n">
-        <v>44.37127987626019</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="D39" t="n">
-        <v>44.37127987626019</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="E39" t="n">
-        <v>44.37127987626019</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="F39" t="n">
-        <v>44.37127987626019</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>252.1315786412141</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>252.1315786412141</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>252.1315786412141</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>44.37127987626019</v>
+        <v>176.5264424227252</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>869.0380923001433</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W42" t="n">
-        <v>790.6398109613051</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X42" t="n">
-        <v>582.7883107557723</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.0280119908184</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>569.2254314512334</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>325.7766548071333</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O12" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>292.5201795090609</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>104.0839743771584</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>147.628950501057</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22986,16 +22986,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23071,13 +23071,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>64.29838805296109</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23226,13 +23226,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>98.14696326317221</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>26.92171639560435</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>176.9860129156012</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>290.3538512141759</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>25.48987149196429</v>
       </c>
       <c r="E15" t="n">
-        <v>88.9707359233753</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23676,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23697,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>77.02266500177038</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>28.74411362527286</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>114.1648013839902</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>228.8284415016743</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431283</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24809,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>15.25510347914729</v>
+        <v>135.7807179558422</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24976,13 +24976,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25046,13 +25046,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>50.58669657950207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>143.994419684076</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25207,13 +25207,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>115.7915986513122</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>150.4632457993081</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>78.79299892541165</v>
       </c>
       <c r="G39" t="n">
-        <v>112.5042817648236</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>119.4339294781075</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>77.6142985254498</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>255.7592246522223</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25885,10 +25885,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879942</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421399</v>
+        <v>-41751.83989425444</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>39017.59163729328</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733378</v>
+        <v>39017.59163729331</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822752</v>
+        <v>9585.249038187043</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729325</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,22 +788,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>67.59919672667945</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>80.33470701582003</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.9042331488103</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>25.09824479845398</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>23.17871577922039</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>87.68958101214713</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.41978777916125</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.9551940726745</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>134.667568689459</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>123.3365499318637</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>84.96471228424694</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,26 +2317,26 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.17871577922039</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>98.92381696846063</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>21.36726813225073</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>69.99226724763528</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>61.77856551940151</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3198,43 +3198,43 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>230.2038249569697</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>100.8824071085284</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>66.27621346797223</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>205.2122742728518</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,46 +3669,46 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.653253669482743</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>94.06887257838802</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>98.92381696846063</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>794.6056091678861</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>794.6056091678861</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>794.6056091678861</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>794.6056091678861</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>551.1568325237861</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>551.1568325237861</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>551.1568325237861</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4512,7 +4512,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4588,19 +4588,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3248651012614</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3248651012614</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
         <v>506.1786963984129</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.1570697793896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>417.2522547781879</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4749,10 +4749,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>44.63290553289352</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>44.63290553289352</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4913,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W9" t="n">
-        <v>391.2152311558108</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.363730950278</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4992,16 +4992,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>569.2254314512334</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>569.2254314512334</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.6502787026334</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6502787026334</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D12" t="n">
-        <v>132.6502787026334</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E12" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>611.2511635784762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>376.0990553467335</v>
+        <v>875.481821154932</v>
       </c>
       <c r="W12" t="n">
-        <v>132.6502787026334</v>
+        <v>875.481821154932</v>
       </c>
       <c r="X12" t="n">
-        <v>132.6502787026334</v>
+        <v>875.481821154932</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.6502787026334</v>
+        <v>667.7215223899782</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
         <v>19.28114311021272</v>
@@ -5244,7 +5244,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.0024326625565</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C14" t="n">
-        <v>348.0024326625565</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D14" t="n">
-        <v>348.0024326625565</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E14" t="n">
-        <v>348.0024326625565</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F14" t="n">
-        <v>104.5536560184564</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>591.4512093066566</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X14" t="n">
-        <v>591.4512093066566</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y14" t="n">
-        <v>348.0024326625565</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C15" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,46 +5363,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.6398109613051</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="16">
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>105.1040848114723</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5843,7 +5843,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>601.5428246748836</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>156.0631229240681</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>216.071404167611</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6548,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6809,16 +6809,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>533.6469426057913</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>290.1981659616912</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
         <v>227.7955745279523</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>251.810259228364</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.5264424227252</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C39" t="n">
-        <v>176.5264424227252</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D39" t="n">
-        <v>176.5264424227252</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>176.5264424227252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.5264424227252</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>311.266984752715</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>164.7324267796</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>26.0016013622155</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>869.0380923001433</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>666.8514976589092</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>666.8514976589092</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>431.6993894271665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>188.2506127830665</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>188.2506127830665</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y42" t="n">
-        <v>188.2506127830665</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,22 +22676,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>104.0839743771584</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,10 +22752,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>247.4175514543149</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.628950501057</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,7 +23035,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.29838805296109</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>176.9860129156012</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23317,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>275.320613684763</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>176.9860129156012</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>145.1110061372781</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>330.8829497359738</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>25.48987149196429</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>10.40164370392489</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23825,10 +23825,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>14.00696723134696</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>27.27073195224952</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4655587480054</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>114.1648013839902</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>228.8284415016743</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.02723208740593</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>302.9608869427055</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>158.8955716431283</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24776,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>90.86817610424573</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>135.7807179558422</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>265.3359907678426</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>339.503732545394</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>143.994419684076</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25171,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>109.2709771587974</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>137.3904765850695</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>150.4632457993081</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>78.79299892541165</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>20.72910780812305</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>77.6142985254498</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>255.7592246522223</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>275.320613684763</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,16 +25949,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>68.50225302454163</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879942</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425444</v>
+        <v>-30755.63033621804</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729328</v>
+        <v>50013.80119532964</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729331</v>
+        <v>50013.80119532973</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532973</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187043</v>
+        <v>20581.45859622343</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532969</v>
       </c>
     </row>
   </sheetData>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36211,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O21" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O21" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37156,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
